--- a/data/trans_dic/P1421-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1421-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.03347663665105408</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.07105192520523722</v>
+        <v>0.07105192520523723</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01884087318401834</v>
+        <v>0.01883822552118426</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01768287552670302</v>
+        <v>0.01681802487401237</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03407297277420303</v>
+        <v>0.03316980019337294</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04050984057273656</v>
+        <v>0.04218671251361207</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04720367210898613</v>
+        <v>0.04704552697395033</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01907951938526315</v>
+        <v>0.01997120753408634</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07259857102186082</v>
+        <v>0.07179850449545057</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0326761685799637</v>
+        <v>0.03301652329816691</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02194763969099192</v>
+        <v>0.0236119037799502</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02183701457895191</v>
+        <v>0.02207630393827871</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05809635918869972</v>
+        <v>0.05792839471651673</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05369030640851184</v>
+        <v>0.05212837671067026</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02564290979612616</v>
+        <v>0.02823276837337928</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05040319706887968</v>
+        <v>0.05043329050416127</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07072538458700103</v>
+        <v>0.06941232424247842</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09853549708339343</v>
+        <v>0.1005631298110769</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1051791699887784</v>
+        <v>0.107393146583077</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06071008788967463</v>
+        <v>0.06287111538279733</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1225271322153715</v>
+        <v>0.1205821416673872</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06288416576037878</v>
+        <v>0.06328504230024835</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04924548526362151</v>
+        <v>0.04882443254845055</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04846431045327423</v>
+        <v>0.0488978657115105</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08795302757731559</v>
+        <v>0.08671789684845688</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.007810065536324106</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03311319266060985</v>
+        <v>0.03311319266060984</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.08079697589055598</v>
@@ -821,7 +821,7 @@
         <v>0.05169843815019152</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.1077563819673988</v>
+        <v>0.1077563819673989</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.05228994232116072</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01057685120622668</v>
+        <v>0.0104822905396656</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002520869523197122</v>
+        <v>0.002717689353594698</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002492343106854819</v>
+        <v>0.002489103186468064</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01956823042498154</v>
+        <v>0.01906014014486438</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05723779346862504</v>
+        <v>0.05653750103179996</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02611383784709853</v>
+        <v>0.02631747174196648</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03206954242886163</v>
+        <v>0.03248985629297865</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08609170388298498</v>
+        <v>0.08505318594556642</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03864836471388755</v>
+        <v>0.03729643054438402</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01575634083802515</v>
+        <v>0.01601329745303837</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01865113542381533</v>
+        <v>0.0186719259966322</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05470895569051776</v>
+        <v>0.05424499426592301</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04018034040404964</v>
+        <v>0.04145138064837978</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0228075158089358</v>
+        <v>0.02435377866863158</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02238450057010917</v>
+        <v>0.02109323709796503</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0518875383184706</v>
+        <v>0.0539305287649696</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1123214337550314</v>
+        <v>0.1133329097539923</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0744256171810347</v>
+        <v>0.07751730709334136</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08062136459579906</v>
+        <v>0.08177344648241863</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1349144573931151</v>
+        <v>0.139013548633117</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07054906412832608</v>
+        <v>0.07055565387890918</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04080150434379967</v>
+        <v>0.04322361470595639</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04477689408288129</v>
+        <v>0.04680678789238954</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0838132806232072</v>
+        <v>0.08313292632009578</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.02421639203943123</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.0743447460759304</v>
+        <v>0.07434474607593039</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01614927469007173</v>
+        <v>0.01552078612225914</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006910300339025454</v>
+        <v>0.007406211903002492</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.00219412405105524</v>
+        <v>0.002366552498266247</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02945485044723281</v>
+        <v>0.02985105534684975</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04119977365979763</v>
+        <v>0.04343878797426547</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03237768765084661</v>
+        <v>0.03395949246032078</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03672098658252736</v>
+        <v>0.03971093362740925</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1078984583789787</v>
+        <v>0.1002664451643414</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02515300382402455</v>
+        <v>0.02586974690980562</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01747660469610501</v>
+        <v>0.01676722613919055</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01417748042565129</v>
+        <v>0.01414971045127468</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05619521776667936</v>
+        <v>0.05646063051483995</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04336807441916209</v>
+        <v>0.0452317151858137</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02574814869697327</v>
+        <v>0.02593071477496565</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02124718578704717</v>
+        <v>0.02185134250362267</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07385024377167083</v>
+        <v>0.07455565774046759</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1256468676796946</v>
+        <v>0.1231996843286793</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09204586993345923</v>
+        <v>0.09790596518289195</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1242508104940381</v>
+        <v>0.1207477304194512</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1963781450352355</v>
+        <v>0.1847307428293786</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0537644917483335</v>
+        <v>0.05369510150335095</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04064721883609441</v>
+        <v>0.04085481589569013</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03895088909551284</v>
+        <v>0.0404899775325722</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09427954363410242</v>
+        <v>0.09542285051101559</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.008798862583885026</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.04534907330263527</v>
+        <v>0.04534907330263526</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.06225541468889391</v>
@@ -1105,7 +1105,7 @@
         <v>0.02645378812346964</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07787794952436188</v>
+        <v>0.0778779495243619</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01501985741369156</v>
+        <v>0.01563200610937464</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.008106266375368879</v>
+        <v>0.00834284637145298</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004291593245164196</v>
+        <v>0.004243375850536346</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03428915682154538</v>
+        <v>0.0337334740340224</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04573705762863292</v>
+        <v>0.04499587854288196</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03574119036893975</v>
+        <v>0.03573026285044801</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03698074747432202</v>
+        <v>0.03799092201875694</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.102122895087644</v>
+        <v>0.1015259376327816</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02924070800406931</v>
+        <v>0.02892755635613269</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02160888257485662</v>
+        <v>0.02131503500616803</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01960384307803155</v>
+        <v>0.0195976971798804</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06664171397709957</v>
+        <v>0.06618238268673859</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03377399809173146</v>
+        <v>0.03326048760019653</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02150434565969522</v>
+        <v>0.02252027707089097</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01645592853704882</v>
+        <v>0.0170609517073864</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06016445003390138</v>
+        <v>0.05910407869129747</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08344846900713047</v>
+        <v>0.08281237316555647</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06923783431874955</v>
+        <v>0.06777953068899828</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0666913165998614</v>
+        <v>0.06712903712986382</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1421483347247526</v>
+        <v>0.1387543791655554</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04708863123177012</v>
+        <v>0.04561001566319851</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03721440138214649</v>
+        <v>0.03705818798089985</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03417951225398707</v>
+        <v>0.03430354254937099</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08936808245479408</v>
+        <v>0.08841737951709583</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.05091122279786985</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.09895850838524116</v>
+        <v>0.09895850838524117</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01279250925193762</v>
+        <v>0.0110132247552678</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.003754527423209628</v>
+        <v>0.00418330708284595</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01365604212779857</v>
+        <v>0.01348559815171553</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03140879965671433</v>
+        <v>0.03267279192302838</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03759806310459703</v>
+        <v>0.03860482787076725</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04855718898868314</v>
+        <v>0.05078623226408657</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05471602496754861</v>
+        <v>0.05511430430901457</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1148096213036123</v>
+        <v>0.1158768222243063</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03204331525050266</v>
+        <v>0.03144156610654109</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03432066949147324</v>
+        <v>0.03310357148444824</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0399645199365944</v>
+        <v>0.03926344280964548</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.085437492495054</v>
+        <v>0.08432570650923808</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0488076262472136</v>
+        <v>0.05198863147687326</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02353245061344773</v>
+        <v>0.02561019847967447</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04017065094188176</v>
+        <v>0.04100537490702206</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07028120366081932</v>
+        <v>0.0737054246510193</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07619584093668892</v>
+        <v>0.07918095364132868</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08570244663768956</v>
+        <v>0.08781916706001923</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09437880241272717</v>
+        <v>0.0950653961086147</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1532046226895241</v>
+        <v>0.1547139442157219</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05988643369069433</v>
+        <v>0.05958425875398379</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.05745339835736693</v>
+        <v>0.0570209656738493</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.06406835495090192</v>
+        <v>0.06646595162489952</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1128215814139395</v>
+        <v>0.1123933905465305</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.04903492855177909</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.08714743366708469</v>
+        <v>0.0871474336670847</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.03829679982122595</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.002826121773894476</v>
+        <v>0.002830672631780163</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003559765571032953</v>
+        <v>0.003642142734635463</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01065630621814325</v>
+        <v>0.01038583081445516</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03454158919265311</v>
+        <v>0.03493629081722974</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03216966762302397</v>
+        <v>0.03184951860623637</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03556443362531833</v>
+        <v>0.03768156549037651</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.06957923392730887</v>
+        <v>0.06919904033806186</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02905038856691552</v>
+        <v>0.02980165271771615</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02703517293948489</v>
+        <v>0.02754733339544523</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.03010885909510673</v>
+        <v>0.03015362685282135</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.05933273204843574</v>
+        <v>0.06081970892553425</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02317585662256621</v>
+        <v>0.0267151986180385</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03863130691938704</v>
+        <v>0.03448063270737671</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02488111633829936</v>
+        <v>0.0226007418691695</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06961371569795978</v>
+        <v>0.07077053213659951</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05838100152921107</v>
+        <v>0.06015923325471285</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.05803690939387633</v>
+        <v>0.05684178640656291</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.06381106364807931</v>
+        <v>0.06310051156242474</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1049303842292921</v>
+        <v>0.106154771472913</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04947473869405411</v>
+        <v>0.04923150255998475</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.04784416485012908</v>
+        <v>0.04784427416535791</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.05256317776206976</v>
+        <v>0.05103138490361574</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.09120946142341191</v>
+        <v>0.09015589662362589</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.0348927503037027</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.07892764685547095</v>
+        <v>0.07892764685547093</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01894657166187761</v>
+        <v>0.019229411155015</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.008729977686588595</v>
+        <v>0.008789855148001471</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01041527053530659</v>
+        <v>0.01072945302610727</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03784457908655478</v>
+        <v>0.03679688965930848</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05051687289780588</v>
+        <v>0.04990890747089952</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04566101014941246</v>
+        <v>0.04543092583758795</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.04747927184947558</v>
+        <v>0.04664335481305885</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.103392410928826</v>
+        <v>0.1029497215531857</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03645965940922929</v>
+        <v>0.03650816512365132</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02878075587829378</v>
+        <v>0.02935610228424589</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.03036412740137433</v>
+        <v>0.03032032266610583</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.07256857419957705</v>
+        <v>0.07347445151890399</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0299475951941417</v>
+        <v>0.02994119814098658</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01635082704171998</v>
+        <v>0.0164326194697243</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01833501605307372</v>
+        <v>0.01863758251900686</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05247560531254928</v>
+        <v>0.05218718579231348</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06606478700232868</v>
+        <v>0.06595103206895579</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.06084023260865852</v>
+        <v>0.06095565903989841</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.06316481427402104</v>
+        <v>0.06335284114935021</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1207853761915456</v>
+        <v>0.1208082270583192</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0461747330746285</v>
+        <v>0.04602464529367484</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.03764469687979286</v>
+        <v>0.03842058666751264</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.03987729194254017</v>
+        <v>0.03923309390696465</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.08491551869474691</v>
+        <v>0.08534630370842765</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8926</v>
+        <v>8925</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7588</v>
+        <v>7216</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>18761</v>
+        <v>18264</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>12424</v>
+        <v>12938</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14843</v>
+        <v>14794</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6622</v>
+        <v>6931</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>35458</v>
+        <v>35067</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>25502</v>
+        <v>25768</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>16497</v>
+        <v>17748</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>16949</v>
+        <v>17134</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>60364</v>
+        <v>60189</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25437</v>
+        <v>24697</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11211</v>
+        <v>12344</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>21628</v>
+        <v>21641</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>38943</v>
+        <v>38220</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>30219</v>
+        <v>30841</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>33074</v>
+        <v>33770</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21070</v>
+        <v>21820</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>59844</v>
+        <v>58894</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>49078</v>
+        <v>49391</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>37016</v>
+        <v>36700</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>37615</v>
+        <v>37952</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>91386</v>
+        <v>90102</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3881</v>
+        <v>3846</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1056</v>
+        <v>1138</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9456</v>
+        <v>9210</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>21285</v>
+        <v>21024</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>8827</v>
+        <v>8896</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>11939</v>
+        <v>12095</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>36373</v>
+        <v>35934</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>28553</v>
+        <v>27555</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>11925</v>
+        <v>12119</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>13979</v>
+        <v>13995</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>49550</v>
+        <v>49130</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14744</v>
+        <v>15210</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9552</v>
+        <v>10199</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8444</v>
+        <v>7957</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>25073</v>
+        <v>26060</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>41768</v>
+        <v>42145</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>25157</v>
+        <v>26202</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>30013</v>
+        <v>30442</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>57000</v>
+        <v>58732</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>52122</v>
+        <v>52126</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>30879</v>
+        <v>32712</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>33560</v>
+        <v>35082</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>75910</v>
+        <v>75294</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8759</v>
+        <v>8418</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4342</v>
+        <v>4654</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1145</v>
+        <v>1235</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13866</v>
+        <v>14052</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6913</v>
+        <v>7288</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8422</v>
+        <v>8834</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6100</v>
+        <v>6597</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>20231</v>
+        <v>18800</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>17863</v>
+        <v>18372</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>15528</v>
+        <v>14898</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>9755</v>
+        <v>9736</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>36990</v>
+        <v>37165</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>23522</v>
+        <v>24533</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16180</v>
+        <v>16294</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11089</v>
+        <v>11405</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>34764</v>
+        <v>35097</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>21081</v>
+        <v>20671</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>23944</v>
+        <v>25468</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>20641</v>
+        <v>20059</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>36820</v>
+        <v>34636</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>38182</v>
+        <v>38133</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>36116</v>
+        <v>36300</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>26800</v>
+        <v>27859</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>62059</v>
+        <v>62811</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18600</v>
+        <v>19358</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9395</v>
+        <v>9669</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4934</v>
+        <v>4878</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>38810</v>
+        <v>38181</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>32669</v>
+        <v>32140</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>27332</v>
+        <v>27324</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>30542</v>
+        <v>31376</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>87949</v>
+        <v>87435</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>57096</v>
+        <v>56485</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>41570</v>
+        <v>41004</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>38728</v>
+        <v>38716</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>132821</v>
+        <v>131905</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>41823</v>
+        <v>41188</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>24924</v>
+        <v>26101</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>18918</v>
+        <v>19614</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>68097</v>
+        <v>66897</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>59606</v>
+        <v>59152</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>52948</v>
+        <v>51832</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>55079</v>
+        <v>55440</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>122420</v>
+        <v>119497</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>91946</v>
+        <v>89059</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>71590</v>
+        <v>71290</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>67522</v>
+        <v>67767</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>178115</v>
+        <v>176221</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4484</v>
+        <v>3861</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1917</v>
+        <v>2136</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>8476</v>
+        <v>8371</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>17753</v>
+        <v>18468</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>21384</v>
+        <v>21957</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>36915</v>
+        <v>38610</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>40394</v>
+        <v>40688</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>95133</v>
+        <v>96017</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>29458</v>
+        <v>28904</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>43616</v>
+        <v>42069</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>54310</v>
+        <v>53357</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>119087</v>
+        <v>117538</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>17110</v>
+        <v>18225</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>12016</v>
+        <v>13076</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>24934</v>
+        <v>25452</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>39726</v>
+        <v>41661</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>43337</v>
+        <v>45034</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>65155</v>
+        <v>66764</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>69675</v>
+        <v>70181</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>126948</v>
+        <v>128198</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>55054</v>
+        <v>54776</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>73014</v>
+        <v>72465</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>87066</v>
+        <v>90324</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>157257</v>
+        <v>156660</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>950</v>
+        <v>972</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2528</v>
+        <v>2464</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>43134</v>
+        <v>43627</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>35687</v>
+        <v>35332</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>38482</v>
+        <v>40772</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>58602</v>
+        <v>58281</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>44940</v>
+        <v>46102</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>37207</v>
+        <v>37912</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>41224</v>
+        <v>41285</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>64047</v>
+        <v>65652</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6911</v>
+        <v>7966</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>10310</v>
+        <v>9202</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7144</v>
+        <v>6490</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>16514</v>
+        <v>16789</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>72904</v>
+        <v>75124</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>64383</v>
+        <v>63057</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>69045</v>
+        <v>68276</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>88375</v>
+        <v>89407</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>76535</v>
+        <v>76159</v>
       </c>
       <c r="L27" s="6" t="n">
         <v>65845</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>71968</v>
+        <v>69871</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>98457</v>
+        <v>97319</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>61959</v>
+        <v>62884</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>29864</v>
+        <v>30069</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>35263</v>
+        <v>36327</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>130143</v>
+        <v>126540</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>170652</v>
+        <v>168598</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>161956</v>
+        <v>161140</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>167678</v>
+        <v>164725</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>375361</v>
+        <v>373754</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>242395</v>
+        <v>242718</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>200538</v>
+        <v>204547</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>210038</v>
+        <v>209735</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>513012</v>
+        <v>519416</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>97934</v>
+        <v>97913</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>55934</v>
+        <v>56214</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>62077</v>
+        <v>63102</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>180457</v>
+        <v>179466</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>223175</v>
+        <v>222791</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>215795</v>
+        <v>216205</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>223073</v>
+        <v>223737</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>438506</v>
+        <v>438589</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>306984</v>
+        <v>305986</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>262300</v>
+        <v>267707</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>275844</v>
+        <v>271388</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>600296</v>
+        <v>603342</v>
       </c>
     </row>
     <row r="32">
